--- a/models/model_training/PhishingUrlData/Mock_Data_04_08_2025.xlsx
+++ b/models/model_training/PhishingUrlData/Mock_Data_04_08_2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Active_Domains" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Active_Domains" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -2416,7 +2416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2427,252 +2427,870 @@
     <row r="1">
       <c r="A1" s="12" t="inlineStr">
         <is>
-          <t>S. No</t>
+          <t>raw_value</t>
         </is>
       </c>
       <c r="B1" s="12" t="inlineStr">
         <is>
-          <t>Identified Phishing/Suspected Domain Name</t>
+          <t>host</t>
         </is>
       </c>
       <c r="C1" s="12" t="inlineStr">
         <is>
-          <t>Critical Sector Entity Name</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D1" s="12" t="inlineStr">
         <is>
-          <t>Phishing/Suspected Domains (i.e. Class Label)</t>
+          <t>phishing_score</t>
         </is>
       </c>
       <c r="E1" s="12" t="inlineStr">
         <is>
-          <t>_checked_normalized</t>
+          <t>phishing_indicators</t>
         </is>
       </c>
       <c r="F1" s="12" t="inlineStr">
         <is>
-          <t>_dns_resolved</t>
+          <t>verified_phishing</t>
         </is>
       </c>
       <c r="G1" s="12" t="inlineStr">
         <is>
-          <t>_dns_addresses</t>
+          <t>content_hash</t>
         </is>
       </c>
       <c r="H1" s="12" t="inlineStr">
         <is>
-          <t>_http_active</t>
+          <t>final_url</t>
         </is>
       </c>
       <c r="I1" s="12" t="inlineStr">
         <is>
-          <t>_http_details</t>
+          <t>dns_resolved</t>
+        </is>
+      </c>
+      <c r="J1" s="12" t="inlineStr">
+        <is>
+          <t>http_active</t>
+        </is>
+      </c>
+      <c r="K1" s="12" t="inlineStr">
+        <is>
+          <t>http_status</t>
+        </is>
+      </c>
+      <c r="L1" s="12" t="inlineStr">
+        <is>
+          <t>ip_addresses</t>
+        </is>
+      </c>
+      <c r="M1" s="12" t="inlineStr">
+        <is>
+          <t>ssl_valid</t>
+        </is>
+      </c>
+      <c r="N1" s="12" t="inlineStr">
+        <is>
+          <t>filename</t>
+        </is>
+      </c>
+      <c r="O1" s="12" t="inlineStr">
+        <is>
+          <t>check_timestamp</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>9</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>hdfrewards.pages.dev</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>hdfrewards.pages.dev</t>
+        </is>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>172.66.47.59,172.66.44.197</t>
+        </is>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Mock_Data_04_08_2025.xlsx</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>2025-10-04T20:50:03.874961</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>rewardshdfc.pages.dev</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>rewardshdfc.pages.dev</t>
+        </is>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>172.66.44.55,172.66.47.201</t>
+        </is>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Mock_Data_04_08_2025.xlsx</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2025-10-04T20:50:03.874961</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>hdfc.pages.dev</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>hdfc.pages.dev</t>
+        </is>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>172.66.47.93,172.66.44.163</t>
+        </is>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Mock_Data_04_08_2025.xlsx</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>2025-10-04T20:50:03.874961</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>cicici.pages.dev</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>cicici.pages.dev</t>
+        </is>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>172.66.44.194,172.66.47.62</t>
+        </is>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Mock_Data_04_08_2025.xlsx</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2025-10-04T20:50:03.874961</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>hdfcbankregalia.pages.dev</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>HDFC Bank</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Suspected</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>hdfcbankregalia.pages.dev</t>
         </is>
       </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>172.66.44.135, 172.66.47.121</t>
-        </is>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>{'final_url': 'https://hdfcbankregalia.pages.dev', 'status': 200, 'tried': 'https://hdfcbankregalia.pages.dev'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>BRAND_IMPERSONATION:bank</t>
+        </is>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>c229ab859fc112f0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://hdfcbankregalia.pages.dev</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>200</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>172.66.47.121,172.66.44.135</t>
+        </is>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Mock_Data_04_08_2025.xlsx</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2025-10-04T20:50:03.874961</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sbi-yono.pages.dev</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>sbi-yono.pages.dev</t>
+        </is>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>533ea861b610cb6a</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://sbi-yono.pages.dev</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>200</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>172.66.44.237,172.66.47.19</t>
+        </is>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Mock_Data_04_08_2025.xlsx</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2025-10-04T20:50:03.874961</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>hdfcbank.pages.dev</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>hdfcbank.pages.dev</t>
+        </is>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>172.66.44.106,172.66.47.150</t>
+        </is>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Mock_Data_04_08_2025.xlsx</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2025-10-04T20:50:03.874961</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sbi-front.vercel.app</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>sbi-front.vercel.app</t>
+        </is>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>62f9b643f834c066</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://sbi-front.vercel.app</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>200</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>64.29.17.195,216.198.79.195</t>
+        </is>
+      </c>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Mock_Data_04_08_2025.xlsx</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>2025-10-04T20:50:03.874961</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sbi-site.vercel.app</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>sbi-site.vercel.app</t>
+        </is>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
         <v>10</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>hdfrewards.pages.dev</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>HDFC Bank</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Suspected</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>sbi-yono.pages.dev</t>
-        </is>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>172.66.44.237, 172.66.47.19</t>
-        </is>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>{'final_url': 'https://sbi-yono.pages.dev', 'status': 200, 'tried': 'https://sbi-yono.pages.dev'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>20</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>onlinicicikyc.pages.dev</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ICICI Bank</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Suspected</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>sbi-site.vercel.app</t>
-        </is>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>64.29.17.195, 216.198.79.195</t>
-        </is>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>{'final_url': 'https://sbi-site.vercel.app', 'status': 200, 'tried': 'https://sbi-site.vercel.app'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>21</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>https://bobfinancials.in</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Bank of Baroda</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Phishing</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>sbi-front.vercel.app</t>
-        </is>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>64.29.17.3, 216.198.79.3</t>
-        </is>
-      </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>{'final_url': 'https://sbi-front.vercel.app', 'status': 200, 'tried': 'https://sbi-front.vercel.app'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>24</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>FORMS_FOUND:1</t>
+        </is>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>ae03a86a7e7f40d2</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://sbi-site.vercel.app</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>200</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>216.198.79.131,64.29.17.131</t>
+        </is>
+      </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Mock_Data_04_08_2025.xlsx</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>2025-10-04T20:50:03.874961</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>rewardshdfcapk.pages.dev</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>rewardshdfcapk.pages.dev</t>
+        </is>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>172.66.47.185,172.66.44.71</t>
+        </is>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Mock_Data_04_08_2025.xlsx</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2025-10-04T20:50:03.874961</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://bankofbaroda.uat.paymentstogo.net/gpp/</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>bankofbaroda.uat.paymentstogo.net</t>
+        </is>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>13.107.246.68,13.107.213.68</t>
+        </is>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Mock_Data_04_08_2025.xlsx</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>2025-10-04T20:50:03.874961</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>https://bankofbaroda.prod.paymentstogo.net/gpp/</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Bank of Baroda</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Phishing</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>bankofbaroda.prod.paymentstogo.net</t>
+        </is>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>13.107.246.68,13.107.213.68</t>
+        </is>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Mock_Data_04_08_2025.xlsx</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>2025-10-04T20:50:03.874961</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://bankofbaroda-gs.uat.paymentstogo.net/gpp/</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>bankofbaroda-gs.uat.paymentstogo.net</t>
+        </is>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>13.107.246.68,13.107.213.68</t>
+        </is>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Mock_Data_04_08_2025.xlsx</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>2025-10-04T20:50:03.874961</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>hdfc-beige.vercel.app</t>
         </is>
       </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>216.198.79.3, 64.29.17.3</t>
-        </is>
-      </c>
-      <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>{'final_url': 'https://hdfc-beige.vercel.app', 'status': 200, 'tried': 'https://hdfc-beige.vercel.app'}</t>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>hdfc-beige.vercel.app</t>
+        </is>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>e396974ad8782e36</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://hdfc-beige.vercel.app</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>200</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>64.29.17.131,216.198.79.131</t>
+        </is>
+      </c>
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Mock_Data_04_08_2025.xlsx</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>2025-10-04T20:50:03.874961</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://bankofbaroda.carrer.com/</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>bankofbaroda.carrer.com</t>
+        </is>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>127.0.0.2</t>
+        </is>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Mock_Data_04_08_2025.xlsx</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2025-10-04T20:50:03.874961</t>
         </is>
       </c>
     </row>
